--- a/medicine/Pharmacie/Classe_ATC_G04/Classe_ATC_G04.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_G04/Classe_ATC_G04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC G04, dénommée « Médicaments urologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QG04[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique G de la classification, intitulé « Système génito-urinaire et hormones sexuelles ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC G04, dénommée « Médicaments urologiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QG04. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique G de la classification, intitulé « Système génito-urinaire et hormones sexuelles ».
 </t>
         </is>
       </c>
@@ -513,14 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>G04BA Acidifiants
-G04BA01 Chlorure d'ammonium
+          <t>G04BA Acidifiants</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>G04BA01 Chlorure d'ammonium
 G04BA03 Chlorure de calcium
-« QG04BA90 » Méthionine
-G04BC Solubilisants des calculs urinaires
-Vide.
-G04BD Antispasmodiques urinaires
-G04BD01 Émépronium (en)
+« QG04BA90 » Méthionine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>G04B Autres médicaments urologiques, antispasmodiques inclus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>G04BC Solubilisants des calculs urinaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>G04B Autres médicaments urologiques, antispasmodiques inclus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>G04BD Antispasmodiques urinaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>G04BD01 Émépronium (en)
 G04BD02 Flavoxate (en)
 G04BD03 Méladrazine (en)
 G04BD04 Oxybutynine
@@ -532,9 +617,43 @@
 G04BD10 Darifénacine
 G04BD11 Fesoterodine
 G04BD12 Mirabegron
-G04BD13 Desfésotérodine
-G04BE Médicaments utilisés dans les troubles de l'érection
-G04BE01 Alprostadil
+G04BD13 Desfésotérodine</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>G04B Autres médicaments urologiques, antispasmodiques inclus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>G04BE Médicaments utilisés dans les troubles de l'érection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>G04BE01 Alprostadil
 G04BE02 Papavérine
 G04BE03 Sildénafil
 G04BE04 Yohimbine
@@ -545,11 +664,79 @@
 G04BE10 Avanafil
 G04BE11 Udénafil (en)
 G04BE30 Associations
-G04BE52 Papavérine, associations
-QG04BQ Alcalinisants
-« QG04BQ01 » Bicarbonate de sodium
-G04BX Autres médicaments urologiques
-G04BX01 Hydroxyde de magnésium
+G04BE52 Papavérine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>G04B Autres médicaments urologiques, antispasmodiques inclus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>QG04BQ Alcalinisants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>« QG04BQ01 » Bicarbonate de sodium</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>G04B Autres médicaments urologiques, antispasmodiques inclus</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>G04BX Autres médicaments urologiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>G04BX01 Hydroxyde de magnésium
 G04BX03 Acide acétohydroxamique
 G04BX06 Phénazopyridine
 G04BX10 Succinimide
@@ -557,7 +744,7 @@
 G04BX12 Phényl salicylate (en)
 G04BX13 Diméthylsulfoxyde
 G04BX14 Dapoxétine
-G04BX15 Pentosane polysulfate de sodium (en), en voie oral, vendu sous le nom commercial Elmiron contre les syndromes de la vessie douloureuse, cette molécule a été ajoutée (avec 11 autres) en 2020 à la liste noire des médicaments aux effets indésirables disproportionnés par rapport à leur faible efficacité ou à la bénignité de la situation clinique dans laquelle ils sont autorisés (liste publiée annuellement par la revue médicale Prescrire)[3].
+G04BX15 Pentosane polysulfate de sodium (en), en voie oral, vendu sous le nom commercial Elmiron contre les syndromes de la vessie douloureuse, cette molécule a été ajoutée (avec 11 autres) en 2020 à la liste noire des médicaments aux effets indésirables disproportionnés par rapport à leur faible efficacité ou à la bénignité de la situation clinique dans laquelle ils sont autorisés (liste publiée annuellement par la revue médicale Prescrire).
 G04BX16 Tiopronine
 « QG04BX56 » Phénazopyridine, associations
 « QG04BX90 » Éphédrine
@@ -565,45 +752,118 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_G04</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>G04C Médicaments utilisés dans l'hypertrophie bénigne de la prostate</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>G04CA Alphabloquants
-G04CA01 Alfuzosine
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G04CA Alphabloquants</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>G04CA01 Alfuzosine
 G04CA02 Tamsulosine
 G04CA03 Térazosine
 G04CA04 Silodosine
 G04CA51 Alfuzosine et finastéride
 G04CA52 Tamsulosine et dutastéride
-G04CA53 Alfuzosine et solifénacine
-G04CB Inhibiteurs de l'alpha-5-testostérone réductase
-G04CB01 Finastéride
-G04CB02 Dutastéride
-G04CX Autres médicaments utilisés dans l'hypertrophie bénigne de la prostate
-G04CX01 Prunus africanae cortex
+G04CA53 Alfuzosine et solifénacine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>G04C Médicaments utilisés dans l'hypertrophie bénigne de la prostate</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G04CB Inhibiteurs de l'alpha-5-testostérone réductase</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>G04CB01 Finastéride
+G04CB02 Dutastéride</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_G04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>G04C Médicaments utilisés dans l'hypertrophie bénigne de la prostate</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>G04CX Autres médicaments utilisés dans l'hypertrophie bénigne de la prostate</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>G04CX01 Prunus africanae cortex
 G04CX02 Sabalis serrulatae fructus
 G04CX03 Mépartricine (en)
 « QG04CX90 » Osatérone (en)</t>
